--- a/outputs-r202/f__UBA1242.xlsx
+++ b/outputs-r202/f__UBA1242.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -657,6 +662,11 @@
           <t>g__WRAD01</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>g__WRAD01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -744,6 +754,11 @@
           <t>g__WRAD01</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>g__WRAD01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -829,6 +844,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>g__WRAD01</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>g__WRAD01(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__UBA1242.xlsx
+++ b/outputs-r202/f__UBA1242.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,83 +579,83 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG093.fasta</t>
+          <t>RUG585.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.183859530796328e-12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3230410391326808</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.183859530796326e-12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.183859530796326e-12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.183859530796326e-12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183859530796327e-12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.183859530796327e-12</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.183859530796327e-12</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.183859530796327e-12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.183859530796325e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.183859530796328e-12</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.183859530796328e-12</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.183859530796328e-12</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.183859530796328e-12</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3230410391326807</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3539179217097774</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.183859530796328e-12</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3539179217097774</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -664,90 +664,90 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>g__WRAD01(reject)</t>
+          <t>g__WRAD01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG585.fasta</t>
+          <t>RUG774.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.03960283582225414</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.03960283582225414</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.03960283582225411</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.03960283582225405</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.0396028358222541</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.0396028358222541</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.0396028358222541</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.0396028358222541</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.0396028358222541</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.08913477608815626</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.0396028358222541</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0.08913477608815626</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -755,98 +755,6 @@
         </is>
       </c>
       <c r="AB3" t="inlineStr">
-        <is>
-          <t>g__WRAD01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG774.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.03960283582225414</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03960283582225414</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03960283582225411</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.03960283582225405</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0396028358222541</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0396028358222541</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.0396028358222541</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0396028358222541</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.0396028358222541</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.08913477608815626</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.0396028358222541</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.08913477608815626</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>g__WRAD01</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
         <is>
           <t>g__WRAD01(reject)</t>
         </is>
